--- a/SPI_Batman_1Slave/Teensy_Master/SPI_Test_1tdb/spicap1tdb.xlsx
+++ b/SPI_Batman_1Slave/Teensy_Master/SPI_Test_1tdb/spicap1tdb.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomde\Documents\GitHub\Tesla-Model-3-Battery-BMS\SPI_Batman_1Slave\Teensy_Master\SPI_Test_1tdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9D2DECF5-0B6A-4178-B57F-0551936A7148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D50E3D-D89A-4FF1-8D20-CB4C8A8FC041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spicap1tdb" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9715" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9716" uniqueCount="90">
   <si>
     <t>Time [s]</t>
   </si>
@@ -296,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,7 +1142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1936"/>
   <sheetViews>
     <sheetView topLeftCell="A508" workbookViewId="0">
@@ -39862,16 +39872,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>68</v>
       </c>
@@ -39909,7 +39919,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>79</v>
       </c>
@@ -39931,8 +39941,14 @@
       <c r="M3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F4">
         <f>HEX2DEC(F3)</f>
         <v>40814</v>
@@ -39961,22 +39977,37 @@
         <f t="shared" ref="M4" si="2">HEX2DEC(M3)</f>
         <v>40924</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>HEX2DEC(R3)</f>
+        <v>40814</v>
+      </c>
+      <c r="T4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F5">
         <f>F4/12.5</f>
         <v>3265.12</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:I5" si="3">G4/12.5</f>
+        <f t="shared" ref="G5:H5" si="3">G4/12.5</f>
         <v>3272.8</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
         <v>3273.92</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <f>R4/12.5</f>
+        <v>3265.12</v>
+      </c>
+      <c r="T5">
+        <f>T3/T4</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -40014,7 +40045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>85</v>
       </c>
@@ -40036,8 +40067,12 @@
       <c r="M7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f>R4*0.08</f>
+        <v>3265.12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F8">
         <f>HEX2DEC(F7)</f>
         <v>40956</v>
@@ -40067,7 +40102,7 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F9">
         <f>F8/12.5</f>
         <v>3276.48</v>
@@ -40081,7 +40116,7 @@
         <v>3276.4</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>1</v>
       </c>
@@ -40104,7 +40139,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="J13">
         <v>9</v>
       </c>
